--- a/va_facility_data_2025-02-20/Oakwood VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Oakwood%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Oakwood VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Oakwood%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R8c52940264754d80b2581af080f5a620"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R02a53059c68a481fbf6e1579bd16aca1"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rba3bcde5e58b48e5bb1d02a9add06c4a"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rd2c7227bd53e49f5bc291ccaef7a8ee0"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd83cb09076dc48ac9f9f8b9243eb46de"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf872912375c749cfaafa7befcd693ed8"/>
   </x:sheets>
 </x:workbook>
 </file>
